--- a/data/casedata.xlsx
+++ b/data/casedata.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>用例编号</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>预期结果</t>
+  </si>
+  <si>
+    <t>预期码</t>
   </si>
   <si>
     <t>login-001</t>
@@ -1301,13 +1304,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.8181818181818" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -1316,7 +1319,7 @@
     <col min="6" max="6" width="16.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1335,150 +1338,179 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="G2">
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="4" spans="7:7">
+      <c r="G4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+      <c r="G6">
+        <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>111</v>
@@ -1487,50 +1519,59 @@
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>1234</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
